--- a/biology/Botanique/Jardin_botanique_de_Hanoï/Jardin_botanique_de_Hanoï.xlsx
+++ b/biology/Botanique/Jardin_botanique_de_Hanoï/Jardin_botanique_de_Hanoï.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardin_botanique_de_Hano%C3%AF</t>
+          <t>Jardin_botanique_de_Hanoï</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin botanique de Hanoï est situé dans la capitale vietnamienne, Hanoï, au nord du pays. Son code d'identification internationale est Hanoi. Il s'étend sur dix hectares et est le plus vieux parc de la ville.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardin_botanique_de_Hano%C3%AF</t>
+          <t>Jardin_botanique_de_Hanoï</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire et emplacement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin est aménagé en 1890 du temps de l'Indochine française dans une zone verte de trente-trois hectares au nord-ouest de la capitale autour d’un bel ancien petit lac, où se trouve la ville coloniale (monuments administratifs et des villas françaises dans la zone de Ba Đình). Le lac de l'ouest et le lac de Truc Bach se trouvaient à proximité et l'ancien lycée Albert-Sarraut, au sud. 
 André Alaric Salavan a été son administrateur. 
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jardin_botanique_de_Hano%C3%AF</t>
+          <t>Jardin_botanique_de_Hanoï</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Topographie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le parc, il y a une colline basse qui s’appelle núi Nùng (littéralement: le mont Nùng), où se trouvent plusieurs arbres rares, la catégorie principale est l’arbre Sưa (nom scientifique: Dalbergia tonkinensis).
 Sur le sommet de la colline Nùng, il y a le temple Huyền Thiên hắc đế, - un personnage légendaire-, qui a contribué à la victoire militaire du roi Lý contre les agresseurs du Sud. 
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jardin_botanique_de_Hano%C3%AF</t>
+          <t>Jardin_botanique_de_Hanoï</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Collections</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin est planté aux deux tiers d'espèces vietnamiennes et à un tiers d'espèces importées. Elles sont typiques de la zone humide tropicale. La plupart des espèces sont des espèces locales, d'autres sont des espèces exotiques de tous les continents du monde. On y trouve des Araceae, de nombreux ficus, énormes avec des racines adventices, une collection d'orchidées, et diverses plantes ornementales.
 Le jardin a encore préservé des arbres de très grand diamètre et abrite soixante-et-une espèces d'arbres du pays et des espèces provenant d'Australie, d'Asie, d'Afrique et d'Amérique.
